--- a/artfynd/A 426-2023.xlsx
+++ b/artfynd/A 426-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92748814</v>
+        <v>93130364</v>
       </c>
       <c r="B2" t="n">
         <v>103265</v>
@@ -730,7 +730,7 @@
         <v>6473385.259090622</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
